--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Aman" sheetId="1" r:id="rId1"/>
+    <sheet name="sagar" sheetId="2" r:id="rId2"/>
+    <sheet name="shivang" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -168,6 +170,105 @@
   </si>
   <si>
     <t>Regular post ( poster about Analytics on Responsive website) /Printing Brochure vendor calls / info mailed/Research on SEO</t>
+  </si>
+  <si>
+    <t>MODULE</t>
+  </si>
+  <si>
+    <t>TIME SPENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROBLEM FACED </t>
+  </si>
+  <si>
+    <t>SHIVANG</t>
+  </si>
+  <si>
+    <t>Improve the UI of NewFlats page and upload wesite on live server</t>
+  </si>
+  <si>
+    <t>Dashboard error</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tenant modal box , and change UI colours </t>
+  </si>
+  <si>
+    <t>WORK FROM HOME</t>
+  </si>
+  <si>
+    <t>Understanding the funcationality of website and funcationalities</t>
+  </si>
+  <si>
+    <t>Finding and correct the error of employee table /Nestin demo with team</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>site uploaded on live server with running funcationality/ Working on Xpen</t>
+  </si>
+  <si>
+    <t>working on employee and understanding of xpen .. And learn core javbascript from net.</t>
+  </si>
+  <si>
+    <t>SAGAR</t>
+  </si>
+  <si>
+    <t>newflats.aspx search by ownername and search by flatnumber completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 am to 1pm ,3 pm to 5pm ,5 to 7 </t>
+  </si>
+  <si>
+    <t>myflats.aspx not working ,</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>meeting with rwa</t>
+  </si>
+  <si>
+    <t>11am to 2:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three new functionalities proposed by them buzzer system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove tenant completed , completed carpool </t>
+  </si>
+  <si>
+    <t>10 am to 11am error ,11am to 4 pm ,4pm to 7pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem in visitors </t>
+  </si>
+  <si>
+    <t>site uploaded again ,visitors working connected to new database ,created 4 newids of owner ,tenant ,admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conflict in customerror page setting ,chartimage folder deleted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMO testing with team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime error problem in homepage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">re checked if site is working tested the new ids again created guard id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 am to 5pm ,6 pm to 7pm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Employees is not working </t>
+  </si>
+  <si>
+    <t>Working on Add Employees</t>
   </si>
 </sst>
 </file>
@@ -553,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,4 +950,426 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="93" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="101.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="6" max="6" width="64.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Aman" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -269,6 +269,19 @@
   </si>
   <si>
     <t>Working on Add Employees</t>
+  </si>
+  <si>
+    <t>Monday 12-08-2019</t>
+  </si>
+  <si>
+    <t>POST/CIENT FOLLOW UP</t>
+  </si>
+  <si>
+    <t>Two post ( NESTIN &amp; XPEN)  / MESSAGE TO EBNOY RWA FOLLOW UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -310,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,9 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -654,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -714,10 +724,10 @@
       <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="9" t="s">
@@ -744,7 +754,7 @@
       <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -790,7 +800,7 @@
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="10"/>
@@ -815,7 +825,7 @@
       <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -842,7 +852,7 @@
       <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -869,7 +879,7 @@
       <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -896,7 +906,7 @@
       <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -923,7 +933,7 @@
       <c r="E10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -933,12 +943,24 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1174,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Aman" sheetId="1" r:id="rId1"/>
-    <sheet name="sagar" sheetId="2" r:id="rId2"/>
-    <sheet name="shivang" sheetId="3" r:id="rId3"/>
+    <sheet name="shivang" sheetId="2" r:id="rId2"/>
+    <sheet name="sagar" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -277,10 +277,27 @@
     <t>POST/CIENT FOLLOW UP</t>
   </si>
   <si>
-    <t>Two post ( NESTIN &amp; XPEN)  / MESSAGE TO EBNOY RWA FOLLOW UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve">working on Bill Details,Generate Bill ,Active Bills ,deactive bills  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 am to 1pm ,2pm to still working on it </t>
+  </si>
+  <si>
+    <t>Employee table was missing in new database</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generates bills stil not working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two post ( NESTIN &amp; XPEN)  / MESSAGE TO EBNOY RWA FOLLOW UP/Research on SEO offline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 10 am - 12 30am
+2. 2am - 4 30pm
+3.4 30pm - 7 pm
 </t>
   </si>
 </sst>
@@ -664,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,12 +973,14 @@
         <v>78</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -976,15 +995,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="93" customWidth="1"/>
@@ -1187,6 +1206,9 @@
         <v>55</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1194,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1410,30 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Aman" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -299,6 +299,33 @@
 2. 2am - 4 30pm
 3.4 30pm - 7 pm
 </t>
+  </si>
+  <si>
+    <t>Tuesday 13-08-2019</t>
+  </si>
+  <si>
+    <t>Wednesday 14-08-2019</t>
+  </si>
+  <si>
+    <t>Friday 16-08-2019</t>
+  </si>
+  <si>
+    <t>XPEN</t>
+  </si>
+  <si>
+    <t>A thorugh research on xpen and dashboard / understanding the working and features of Xpen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made a report on the features that can be renamed and arranged according to thr features demanded in the market </t>
+  </si>
+  <si>
+    <t>Understanding the codes of Xepn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on xpen / creating ids </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID's not created </t>
   </si>
 </sst>
 </file>
@@ -679,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,10 +1009,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+    <row r="12" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -995,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1271,49 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1216,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A10" sqref="A10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,6 +1542,44 @@
         <v>82</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
